--- a/data/trans_orig/P32D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E18E30-2A92-443A-B9BF-14A01E20401E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F513E57-0083-4617-9519-52B6C19AC0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4120495B-BE21-4164-8820-81577074B47E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23AD40D1-F47F-4257-872E-559B1807E4A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>98,42%</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,7 +137,7 @@
     <t>3,99%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,81%</t>
   </si>
   <si>
     <t>8,07%</t>
@@ -149,16 +149,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,06%</t>
+    <t>5,37%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>96,01%</t>
@@ -167,13 +167,13 @@
     <t>91,93%</t>
   </si>
   <si>
-    <t>98,26%</t>
+    <t>98,19%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>93,94%</t>
+    <t>94,63%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -182,10 +182,10 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,7 +194,7 @@
     <t>8,19%</t>
   </si>
   <si>
-    <t>4,71%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>12,97%</t>
@@ -203,16 +203,16 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>5,4%</t>
+    <t>5,31%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>91,81%</t>
@@ -221,22 +221,22 @@
     <t>87,03%</t>
   </si>
   <si>
-    <t>95,29%</t>
+    <t>95,45%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>94,6%</t>
+    <t>94,69%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -245,328 +245,328 @@
     <t>6,25%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>90,32%</t>
+    <t>90,31%</t>
   </si>
   <si>
     <t>93,08%</t>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8FBEDF-1B52-4A84-87CC-4CA54E301580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCF90EC-6122-4291-BB41-A7C959D5CC01}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P32D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F513E57-0083-4617-9519-52B6C19AC0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0930C00-6FEC-4950-B64B-764EBDB030BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23AD40D1-F47F-4257-872E-559B1807E4A5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{757F8DE8-71CC-4CFD-ACAE-E189EEC2316F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCF90EC-6122-4291-BB41-A7C959D5CC01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926683E5-9839-4B6E-B297-98E5EF4DE8DF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P32D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0930C00-6FEC-4950-B64B-764EBDB030BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC334D12-D512-493F-9FC0-68C24F726354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{757F8DE8-71CC-4CFD-ACAE-E189EEC2316F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60101171-C711-4EBC-AC2B-526E0E1D2C78}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>98,42%</t>
   </si>
   <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,7 +137,7 @@
     <t>3,99%</t>
   </si>
   <si>
-    <t>1,81%</t>
+    <t>1,74%</t>
   </si>
   <si>
     <t>8,07%</t>
@@ -149,16 +149,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,37%</t>
+    <t>6,06%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>96,01%</t>
@@ -167,13 +167,13 @@
     <t>91,93%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>98,26%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>94,63%</t>
+    <t>93,94%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -182,10 +182,10 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,7 +194,7 @@
     <t>8,19%</t>
   </si>
   <si>
-    <t>4,55%</t>
+    <t>4,71%</t>
   </si>
   <si>
     <t>12,97%</t>
@@ -203,16 +203,16 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>5,31%</t>
+    <t>5,4%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>91,81%</t>
@@ -221,22 +221,22 @@
     <t>87,03%</t>
   </si>
   <si>
-    <t>95,45%</t>
+    <t>95,29%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>94,69%</t>
+    <t>94,6%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -245,295 +245,295 @@
     <t>6,25%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>95,66%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>84,56%</t>
   </si>
   <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>83,11%</t>
   </si>
   <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>8,29%</t>
@@ -542,31 +542,31 @@
     <t>6,92%</t>
   </si>
   <si>
-    <t>9,69%</t>
+    <t>9,68%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>90,31%</t>
+    <t>90,32%</t>
   </si>
   <si>
     <t>93,08%</t>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926683E5-9839-4B6E-B297-98E5EF4DE8DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B208115-1FDE-4546-AFD7-644B2CA29E8C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P32D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC334D12-D512-493F-9FC0-68C24F726354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63734E8C-C11A-46F8-8F4D-17E9DF9DA7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60101171-C711-4EBC-AC2B-526E0E1D2C78}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{FDCCAC87-B065-4789-AA94-C12AA0DE555C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población que se dio un atracón de alcohol más de una vez al mes en el último año en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -71,229 +71,229 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>91,66%</t>
   </si>
   <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,274 +302,268 @@
     <t>8,21%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
   <si>
     <t>91,79%</t>
   </si>
   <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
   </si>
   <si>
     <t>88,87%</t>
   </si>
   <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B208115-1FDE-4546-AFD7-644B2CA29E8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22D7488-3C62-4C13-BB34-26B55A0E31E4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1105,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2440</v>
+        <v>2829</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1120,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>2411</v>
+        <v>2718</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1135,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>4851</v>
+        <v>5547</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1156,7 +1150,7 @@
         <v>181</v>
       </c>
       <c r="D5" s="7">
-        <v>152040</v>
+        <v>177060</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1171,7 +1165,7 @@
         <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>82546</v>
+        <v>87965</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1186,7 +1180,7 @@
         <v>340</v>
       </c>
       <c r="N5" s="7">
-        <v>234586</v>
+        <v>265025</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1207,7 +1201,7 @@
         <v>184</v>
       </c>
       <c r="D6" s="7">
-        <v>154480</v>
+        <v>179889</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1222,7 +1216,7 @@
         <v>163</v>
       </c>
       <c r="I6" s="7">
-        <v>84957</v>
+        <v>90683</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1237,7 +1231,7 @@
         <v>347</v>
       </c>
       <c r="N6" s="7">
-        <v>239437</v>
+        <v>270572</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1260,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>10090</v>
+        <v>10188</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1275,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1962</v>
+        <v>1885</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1290,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>12052</v>
+        <v>12073</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1311,7 +1305,7 @@
         <v>173</v>
       </c>
       <c r="D8" s="7">
-        <v>243112</v>
+        <v>245448</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1326,7 +1320,7 @@
         <v>144</v>
       </c>
       <c r="I8" s="7">
-        <v>123337</v>
+        <v>115085</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1341,7 +1335,7 @@
         <v>317</v>
       </c>
       <c r="N8" s="7">
-        <v>366449</v>
+        <v>360533</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1362,7 +1356,7 @@
         <v>180</v>
       </c>
       <c r="D9" s="7">
-        <v>253202</v>
+        <v>255636</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1377,7 +1371,7 @@
         <v>146</v>
       </c>
       <c r="I9" s="7">
-        <v>125299</v>
+        <v>116970</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1392,7 +1386,7 @@
         <v>326</v>
       </c>
       <c r="N9" s="7">
-        <v>378501</v>
+        <v>372606</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1415,7 +1409,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>15288</v>
+        <v>15000</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1430,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1019</v>
+        <v>987</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1445,7 +1439,7 @@
         <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>16307</v>
+        <v>15987</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1466,7 +1460,7 @@
         <v>193</v>
       </c>
       <c r="D11" s="7">
-        <v>171365</v>
+        <v>167895</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1481,7 +1475,7 @@
         <v>123</v>
       </c>
       <c r="I11" s="7">
-        <v>94294</v>
+        <v>88825</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -1496,7 +1490,7 @@
         <v>316</v>
       </c>
       <c r="N11" s="7">
-        <v>265659</v>
+        <v>256720</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1517,7 +1511,7 @@
         <v>210</v>
       </c>
       <c r="D12" s="7">
-        <v>186653</v>
+        <v>182895</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1532,7 +1526,7 @@
         <v>124</v>
       </c>
       <c r="I12" s="7">
-        <v>95313</v>
+        <v>89812</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1547,7 +1541,7 @@
         <v>334</v>
       </c>
       <c r="N12" s="7">
-        <v>281966</v>
+        <v>272707</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1570,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>11300</v>
+        <v>11007</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -1585,7 +1579,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>11122</v>
+        <v>10311</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -1600,7 +1594,7 @@
         <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>22422</v>
+        <v>21318</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -1621,7 +1615,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>169489</v>
+        <v>165713</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1636,7 +1630,7 @@
         <v>167</v>
       </c>
       <c r="I14" s="7">
-        <v>122264</v>
+        <v>113308</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1651,7 +1645,7 @@
         <v>317</v>
       </c>
       <c r="N14" s="7">
-        <v>291752</v>
+        <v>279021</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1672,7 +1666,7 @@
         <v>159</v>
       </c>
       <c r="D15" s="7">
-        <v>180789</v>
+        <v>176720</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1687,7 +1681,7 @@
         <v>179</v>
       </c>
       <c r="I15" s="7">
-        <v>133386</v>
+        <v>123619</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1702,7 +1696,7 @@
         <v>338</v>
       </c>
       <c r="N15" s="7">
-        <v>314174</v>
+        <v>300339</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1725,7 +1719,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>2834</v>
+        <v>2556</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -1740,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>583</v>
+        <v>545</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -1755,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>3417</v>
+        <v>3100</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>92</v>
@@ -1776,7 +1770,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>31696</v>
+        <v>28590</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>95</v>
@@ -1791,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>9213</v>
+        <v>8038</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>98</v>
@@ -1806,7 +1800,7 @@
         <v>60</v>
       </c>
       <c r="N17" s="7">
-        <v>40909</v>
+        <v>36629</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>100</v>
@@ -1827,7 +1821,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>34530</v>
+        <v>31146</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1842,7 +1836,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="7">
-        <v>9796</v>
+        <v>8583</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1857,7 +1851,7 @@
         <v>65</v>
       </c>
       <c r="N18" s="7">
-        <v>44326</v>
+        <v>39729</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1880,7 +1874,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>27848</v>
+        <v>27453</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -1895,7 +1889,7 @@
         <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>7435</v>
+        <v>7043</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>107</v>
@@ -1910,7 +1904,7 @@
         <v>39</v>
       </c>
       <c r="N19" s="7">
-        <v>35283</v>
+        <v>34495</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>110</v>
@@ -1931,7 +1925,7 @@
         <v>181</v>
       </c>
       <c r="D20" s="7">
-        <v>141576</v>
+        <v>137595</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>113</v>
@@ -1946,7 +1940,7 @@
         <v>139</v>
       </c>
       <c r="I20" s="7">
-        <v>95901</v>
+        <v>89377</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>116</v>
@@ -1961,7 +1955,7 @@
         <v>320</v>
       </c>
       <c r="N20" s="7">
-        <v>237476</v>
+        <v>226973</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>119</v>
@@ -1982,7 +1976,7 @@
         <v>211</v>
       </c>
       <c r="D21" s="7">
-        <v>169424</v>
+        <v>165048</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1997,7 +1991,7 @@
         <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>103336</v>
+        <v>96420</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2012,7 +2006,7 @@
         <v>359</v>
       </c>
       <c r="N21" s="7">
-        <v>272759</v>
+        <v>261468</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2035,7 +2029,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="7">
-        <v>33909</v>
+        <v>32954</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>123</v>
@@ -2050,7 +2044,7 @@
         <v>19</v>
       </c>
       <c r="I22" s="7">
-        <v>16630</v>
+        <v>15291</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>126</v>
@@ -2065,7 +2059,7 @@
         <v>55</v>
       </c>
       <c r="N22" s="7">
-        <v>50540</v>
+        <v>48246</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>129</v>
@@ -2086,7 +2080,7 @@
         <v>251</v>
       </c>
       <c r="D23" s="7">
-        <v>270704</v>
+        <v>270892</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>132</v>
@@ -2101,7 +2095,7 @@
         <v>266</v>
       </c>
       <c r="I23" s="7">
-        <v>302609</v>
+        <v>383166</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>135</v>
@@ -2116,7 +2110,7 @@
         <v>517</v>
       </c>
       <c r="N23" s="7">
-        <v>573312</v>
+        <v>654057</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>138</v>
@@ -2137,7 +2131,7 @@
         <v>287</v>
       </c>
       <c r="D24" s="7">
-        <v>304613</v>
+        <v>303846</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2152,7 +2146,7 @@
         <v>285</v>
       </c>
       <c r="I24" s="7">
-        <v>319239</v>
+        <v>398457</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2167,7 +2161,7 @@
         <v>572</v>
       </c>
       <c r="N24" s="7">
-        <v>623852</v>
+        <v>702303</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2190,7 +2184,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="7">
-        <v>50212</v>
+        <v>42122</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>142</v>
@@ -2205,7 +2199,7 @@
         <v>20</v>
       </c>
       <c r="I25" s="7">
-        <v>20660</v>
+        <v>15936</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>145</v>
@@ -2220,7 +2214,7 @@
         <v>59</v>
       </c>
       <c r="N25" s="7">
-        <v>70872</v>
+        <v>58058</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>148</v>
@@ -2241,7 +2235,7 @@
         <v>262</v>
       </c>
       <c r="D26" s="7">
-        <v>274982</v>
+        <v>233743</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>151</v>
@@ -2256,7 +2250,7 @@
         <v>117</v>
       </c>
       <c r="I26" s="7">
-        <v>101650</v>
+        <v>83889</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>154</v>
@@ -2271,7 +2265,7 @@
         <v>379</v>
       </c>
       <c r="N26" s="7">
-        <v>376632</v>
+        <v>317631</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>157</v>
@@ -2292,7 +2286,7 @@
         <v>301</v>
       </c>
       <c r="D27" s="7">
-        <v>325194</v>
+        <v>275865</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2307,7 +2301,7 @@
         <v>137</v>
       </c>
       <c r="I27" s="7">
-        <v>122310</v>
+        <v>99825</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2322,7 +2316,7 @@
         <v>438</v>
       </c>
       <c r="N27" s="7">
-        <v>447504</v>
+        <v>375689</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2345,46 +2339,46 @@
         <v>144</v>
       </c>
       <c r="D28" s="7">
-        <v>153922</v>
+        <v>144110</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
       </c>
       <c r="I28" s="7">
-        <v>61821</v>
+        <v>54715</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>213</v>
       </c>
       <c r="N28" s="7">
-        <v>215743</v>
+        <v>198824</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,46 +2390,46 @@
         <v>1434</v>
       </c>
       <c r="D29" s="7">
-        <v>1454962</v>
+        <v>1426934</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>1132</v>
       </c>
       <c r="I29" s="7">
-        <v>931815</v>
+        <v>969653</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>2566</v>
       </c>
       <c r="N29" s="7">
-        <v>2386777</v>
+        <v>2396589</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,7 +2441,7 @@
         <v>1578</v>
       </c>
       <c r="D30" s="7">
-        <v>1608884</v>
+        <v>1571044</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2462,7 +2456,7 @@
         <v>1201</v>
       </c>
       <c r="I30" s="7">
-        <v>993636</v>
+        <v>1024368</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2477,7 +2471,7 @@
         <v>2779</v>
       </c>
       <c r="N30" s="7">
-        <v>2602520</v>
+        <v>2595413</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2491,7 +2485,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
